--- a/week_6/ch17_ex3_ex4.xlsx
+++ b/week_6/ch17_ex3_ex4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usaskca1-my.sharepoint.com/personal/gal894_usask_ca/Documents/Teaching/CMPT142/CMPT142 2024 Fall SPC/CMPT142_code/week_6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal894.STPETERS\Desktop\CMPT142_lecture_code\week_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_369341FF3405EB371C562DC5B620BA877D45EC71" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4656931C-B477-7746-A8AA-8239B938D535}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="-17660" windowWidth="22300" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7905" yWindow="-17655" windowWidth="22305" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Ex4</t>
   </si>
@@ -58,11 +57,14 @@
   <si>
     <t>index</t>
   </si>
+  <si>
+    <t>[]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +151,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,24 +465,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="16" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -520,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -539,7 +545,7 @@
       <c r="K4" s="5">
         <v>-29</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>-29</v>
       </c>
       <c r="M4" s="5">
@@ -555,18 +561,36 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M5" s="5">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>68</v>
+      </c>
+      <c r="O5" s="5">
+        <v>68</v>
+      </c>
+      <c r="P5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M6" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -607,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G12" s="5">
         <v>-62</v>
       </c>
@@ -623,7 +647,7 @@
       <c r="K12" s="6">
         <v>-9</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <v>-9</v>
       </c>
       <c r="M12" s="5">
@@ -639,12 +663,159 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>-62</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-62</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-44</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-38</v>
+      </c>
+      <c r="K13" s="6">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="7">
+        <v>-62</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-62</v>
+      </c>
       <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
+      <c r="M19" s="4">
+        <v>6</v>
+      </c>
+      <c r="N19" s="4">
+        <v>7</v>
+      </c>
+      <c r="O19" s="4">
+        <v>8</v>
+      </c>
+      <c r="P19" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>-62</v>
+      </c>
+      <c r="H20" s="5">
+        <v>-62</v>
+      </c>
+      <c r="I20" s="5">
+        <v>-44</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-38</v>
+      </c>
+      <c r="K20" s="6">
+        <v>-9</v>
+      </c>
+      <c r="L20" s="7">
+        <v>-9</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2</v>
+      </c>
+      <c r="N20" s="5">
+        <v>20</v>
+      </c>
+      <c r="O20" s="5">
+        <v>62</v>
+      </c>
+      <c r="P20" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="5">
+        <v>-62</v>
+      </c>
+      <c r="H21" s="5">
+        <v>-62</v>
+      </c>
+      <c r="I21" s="7">
+        <v>-44</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-38</v>
+      </c>
+      <c r="K21" s="6">
+        <v>-9</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5">
+        <v>62</v>
+      </c>
+      <c r="P21" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J22" s="7">
+        <v>-38</v>
+      </c>
+      <c r="K22" s="6">
+        <v>-9</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K23" s="7">
+        <v>-9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
